--- a/TAP_POM_Framework/data/TC0042.xlsx
+++ b/TAP_POM_Framework/data/TC0042.xlsx
@@ -27,10 +27,10 @@
     <t>pwd</t>
   </si>
   <si>
-    <t>Rajravi@1</t>
+    <t>app_admin@ltts.com</t>
   </si>
   <si>
-    <t>app_admin@ltts.com</t>
+    <t>Rajravi@1</t>
   </si>
 </sst>
 </file>
@@ -362,7 +362,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,10 +377,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
